--- a/Code/Results/Cases/Case_4_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.54861388200359</v>
+        <v>17.15386298278785</v>
       </c>
       <c r="C2">
-        <v>13.71554264280274</v>
+        <v>11.52759821886406</v>
       </c>
       <c r="D2">
-        <v>7.186423871629382</v>
+        <v>5.978516773887472</v>
       </c>
       <c r="E2">
-        <v>6.820554942299188</v>
+        <v>11.86158874863263</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.06108464133049</v>
+        <v>27.47276373009179</v>
       </c>
       <c r="H2">
-        <v>8.267895051445448</v>
+        <v>13.91327082812218</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.327785904285351</v>
+        <v>9.694535064815888</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.67810734143836</v>
+        <v>21.01690839712343</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.90349561016275</v>
+        <v>16.47104559941554</v>
       </c>
       <c r="C3">
-        <v>13.17942160662147</v>
+        <v>11.31770863479185</v>
       </c>
       <c r="D3">
-        <v>6.687776242526784</v>
+        <v>5.85862166476447</v>
       </c>
       <c r="E3">
-        <v>6.933197120097671</v>
+        <v>11.92341555060806</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.4189230575173</v>
+        <v>27.54629610950944</v>
       </c>
       <c r="H3">
-        <v>8.319189199447349</v>
+        <v>13.97730051633524</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.048588755682926</v>
+        <v>9.659935832854574</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.60217037283537</v>
+        <v>21.11579530358568</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.8337557572464</v>
+        <v>16.03784181814913</v>
       </c>
       <c r="C4">
-        <v>12.84036983926022</v>
+        <v>11.18696006769778</v>
       </c>
       <c r="D4">
-        <v>6.364613986967744</v>
+        <v>5.785545473284466</v>
       </c>
       <c r="E4">
-        <v>7.008218766791048</v>
+        <v>11.96383183875734</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.05908691927995</v>
+        <v>27.60500295813436</v>
       </c>
       <c r="H4">
-        <v>8.359813788657144</v>
+        <v>14.01980993267216</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.875022349214641</v>
+        <v>9.640236141087627</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.57624793865956</v>
+        <v>21.18318059383411</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.38273994995451</v>
+        <v>15.85803954160074</v>
       </c>
       <c r="C5">
-        <v>12.69987018354537</v>
+        <v>11.13326258255971</v>
       </c>
       <c r="D5">
-        <v>6.22875871593402</v>
+        <v>5.755948342617581</v>
       </c>
       <c r="E5">
-        <v>7.040206216067197</v>
+        <v>11.98091908160068</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.92113110981161</v>
+        <v>27.63231001128509</v>
       </c>
       <c r="H5">
-        <v>8.378549959781525</v>
+        <v>14.03793469294474</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.803851564933725</v>
+        <v>9.632602210609001</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.57066393103293</v>
+        <v>21.21230926571885</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.30693515775587</v>
+        <v>15.82799369640914</v>
       </c>
       <c r="C6">
-        <v>12.67640414242794</v>
+        <v>11.12432265632084</v>
       </c>
       <c r="D6">
-        <v>6.209329974548832</v>
+        <v>5.751046114915264</v>
       </c>
       <c r="E6">
-        <v>7.045601607579859</v>
+        <v>11.98379369083317</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.89874729863712</v>
+        <v>27.63704788385603</v>
       </c>
       <c r="H6">
-        <v>8.381789555648815</v>
+        <v>14.04099267849174</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.79201009268515</v>
+        <v>9.631358543071372</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.57003060510499</v>
+        <v>21.21724659747058</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.82773441354888</v>
+        <v>16.03542983648963</v>
       </c>
       <c r="C7">
-        <v>12.83848424775835</v>
+        <v>11.18623749627664</v>
       </c>
       <c r="D7">
-        <v>6.362797334946397</v>
+        <v>5.785145517614804</v>
       </c>
       <c r="E7">
-        <v>7.008644502002291</v>
+        <v>11.96405978380359</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.05719127190021</v>
+        <v>27.605357566657</v>
       </c>
       <c r="H7">
-        <v>8.360057787736345</v>
+        <v>14.02005112503604</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.874064165845713</v>
+        <v>9.640131585554904</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.57615277697211</v>
+        <v>21.1835666880906</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.99369606020581</v>
+        <v>16.92145826022709</v>
       </c>
       <c r="C8">
-        <v>13.53282005058085</v>
+        <v>11.4556501153161</v>
       </c>
       <c r="D8">
-        <v>7.017994243275498</v>
+        <v>5.937092460967837</v>
       </c>
       <c r="E8">
-        <v>6.858141632317098</v>
+        <v>11.88239728175875</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.83254291939922</v>
+        <v>27.49528917589865</v>
       </c>
       <c r="H8">
-        <v>8.28361649934525</v>
+        <v>13.9346842177091</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.232017265320681</v>
+        <v>9.682288136825989</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.6474954043908</v>
+        <v>21.04961571903221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77238481183423</v>
+        <v>18.53912894121093</v>
       </c>
       <c r="C9">
-        <v>14.81055488730192</v>
+        <v>11.96675920005878</v>
       </c>
       <c r="D9">
-        <v>8.169720693695071</v>
+        <v>6.237347804247364</v>
       </c>
       <c r="E9">
-        <v>6.612361494513737</v>
+        <v>11.74172710884976</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.62324591426578</v>
+        <v>27.38803344198093</v>
       </c>
       <c r="H9">
-        <v>8.211437997353421</v>
+        <v>13.79270015506236</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.913298970231794</v>
+        <v>9.776952041325732</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.96098816755883</v>
+        <v>20.84020683815409</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.26913678123323</v>
+        <v>19.6441575762748</v>
       </c>
       <c r="C10">
-        <v>15.69211468545791</v>
+        <v>12.32882052974822</v>
       </c>
       <c r="D10">
-        <v>8.937185934502315</v>
+        <v>6.456749503359978</v>
       </c>
       <c r="E10">
-        <v>6.46628077302704</v>
+        <v>11.65023961286593</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.09720115819625</v>
+        <v>27.37661233936532</v>
       </c>
       <c r="H10">
-        <v>8.213215975967262</v>
+        <v>13.70397689195829</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.397078842336285</v>
+        <v>9.853443762280611</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.3085547376531</v>
+        <v>20.71930609393025</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.34572910167508</v>
+        <v>20.12699796059694</v>
       </c>
       <c r="C11">
-        <v>16.07980497215266</v>
+        <v>12.49003266606925</v>
       </c>
       <c r="D11">
-        <v>9.269792040799043</v>
+        <v>6.55578511980653</v>
       </c>
       <c r="E11">
-        <v>6.408416449606462</v>
+        <v>11.61119475989391</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.80043936208247</v>
+        <v>27.38623321135563</v>
       </c>
       <c r="H11">
-        <v>8.227560825096457</v>
+        <v>13.667020856493</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.612865194645167</v>
+        <v>9.889663005737145</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.49417135369282</v>
+        <v>20.67155835867053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.7450162441367</v>
+        <v>20.30686521465343</v>
       </c>
       <c r="C12">
-        <v>16.2246376173201</v>
+        <v>12.55053264267706</v>
       </c>
       <c r="D12">
-        <v>9.393413789680459</v>
+        <v>6.593136159200882</v>
       </c>
       <c r="E12">
-        <v>6.387842326774239</v>
+        <v>11.5967796087685</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.0713062039133</v>
+        <v>27.39201692521089</v>
       </c>
       <c r="H12">
-        <v>8.23507522095864</v>
+        <v>13.6535179254794</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.693920222411403</v>
+        <v>9.903575072751163</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.56855501190392</v>
+        <v>20.65452785511143</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.65939406879883</v>
+        <v>20.26826158379099</v>
       </c>
       <c r="C13">
-        <v>16.19353405506216</v>
+        <v>12.53752793844371</v>
       </c>
       <c r="D13">
-        <v>9.366892453690538</v>
+        <v>6.585099310341944</v>
       </c>
       <c r="E13">
-        <v>6.392212096877461</v>
+        <v>11.59986769644003</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.01276915761387</v>
+        <v>27.39067597995895</v>
       </c>
       <c r="H13">
-        <v>8.23336208550503</v>
+        <v>13.65640413201296</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.676493424834128</v>
+        <v>9.900570245165564</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.55235102525181</v>
+        <v>20.65814883363608</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.37874625627807</v>
+        <v>20.14185597811175</v>
       </c>
       <c r="C14">
-        <v>16.09176035973736</v>
+        <v>12.4950212603619</v>
       </c>
       <c r="D14">
-        <v>9.280008879090481</v>
+        <v>6.558861275449579</v>
       </c>
       <c r="E14">
-        <v>6.406696370430732</v>
+        <v>11.61000139404702</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.82263297514662</v>
+        <v>27.38666609813653</v>
       </c>
       <c r="H14">
-        <v>8.22813652763065</v>
+        <v>13.66590010038172</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.61954704449586</v>
+        <v>9.890803665861462</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.50020814615993</v>
+        <v>20.67013615056201</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.20575164392417</v>
+        <v>20.06403832387124</v>
       </c>
       <c r="C15">
-        <v>16.0291620068033</v>
+        <v>12.46891208049567</v>
       </c>
       <c r="D15">
-        <v>9.226488293593949</v>
+        <v>6.542768810392055</v>
       </c>
       <c r="E15">
-        <v>6.415745839546689</v>
+        <v>11.61625680691027</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.70675980618028</v>
+        <v>27.38448891903468</v>
       </c>
       <c r="H15">
-        <v>8.225210936286794</v>
+        <v>13.671780722839</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.584578900004987</v>
+        <v>9.884846719050042</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.46880619327434</v>
+        <v>20.67761576740787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.19759770624372</v>
+        <v>19.6121928232802</v>
       </c>
       <c r="C16">
-        <v>15.66650444737093</v>
+        <v>12.31821072960399</v>
       </c>
       <c r="D16">
-        <v>8.915120867097531</v>
+        <v>6.450258242365285</v>
       </c>
       <c r="E16">
-        <v>6.470243748992463</v>
+        <v>11.65284308754111</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.05188908720393</v>
+        <v>27.37628266591842</v>
       </c>
       <c r="H16">
-        <v>8.212562491758263</v>
+        <v>13.70646073098797</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.382886595883402</v>
+        <v>9.851104705055139</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.29699008889052</v>
+        <v>20.72257310337008</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.56404882065736</v>
+        <v>19.32982655446643</v>
       </c>
       <c r="C17">
-        <v>15.44056325551433</v>
+        <v>12.22483286150403</v>
       </c>
       <c r="D17">
-        <v>8.719908658749787</v>
+        <v>6.393278789908233</v>
       </c>
       <c r="E17">
-        <v>6.505946490868246</v>
+        <v>11.67594683163445</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.65842496864681</v>
+        <v>27.37505141674434</v>
       </c>
       <c r="H17">
-        <v>8.208366516317199</v>
+        <v>13.7286091750995</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.258023624907217</v>
+        <v>9.830763905092974</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.1987366504736</v>
+        <v>20.75201573986475</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.19406948339883</v>
+        <v>19.16555525971405</v>
       </c>
       <c r="C18">
-        <v>15.30935526260026</v>
+        <v>12.17079830537372</v>
       </c>
       <c r="D18">
-        <v>8.606070138465677</v>
+        <v>6.360435410511496</v>
       </c>
       <c r="E18">
-        <v>6.527283457448495</v>
+        <v>11.68947768495221</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.43520321668147</v>
+        <v>27.37573745348623</v>
       </c>
       <c r="H18">
-        <v>8.207219004736119</v>
+        <v>13.74166871727746</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.185804041289432</v>
+        <v>9.819198829829148</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.14480585917332</v>
+        <v>20.76963237330268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.06783919845173</v>
+        <v>19.10962004266649</v>
       </c>
       <c r="C19">
-        <v>15.26471740507325</v>
+        <v>12.1524485605891</v>
       </c>
       <c r="D19">
-        <v>8.567257476362091</v>
+        <v>6.349304408269661</v>
       </c>
       <c r="E19">
-        <v>6.53464249380684</v>
+        <v>11.69410058870372</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.36015913933244</v>
+        <v>27.37620883153249</v>
       </c>
       <c r="H19">
-        <v>8.207043763493832</v>
+        <v>13.74614541413998</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.161284184862287</v>
+        <v>9.815306417854606</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.12698472973215</v>
+        <v>20.77571395289792</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.63206773259043</v>
+        <v>19.36007853271127</v>
       </c>
       <c r="C20">
-        <v>15.46474519644913</v>
+        <v>12.23480718095416</v>
       </c>
       <c r="D20">
-        <v>8.740850211668878</v>
+        <v>6.399351928191047</v>
       </c>
       <c r="E20">
-        <v>6.502062184796325</v>
+        <v>11.67346233105658</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.69999132929255</v>
+        <v>27.37503810565901</v>
       </c>
       <c r="H20">
-        <v>8.208681185798454</v>
+        <v>13.72621826708098</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.271357412892575</v>
+        <v>9.832915363324572</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.20892760331178</v>
+        <v>20.74881087755965</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.46140620340454</v>
+        <v>20.17906595417206</v>
       </c>
       <c r="C21">
-        <v>16.12170782871169</v>
+        <v>12.50752171175024</v>
       </c>
       <c r="D21">
-        <v>9.305591518151376</v>
+        <v>6.566572449535083</v>
       </c>
       <c r="E21">
-        <v>6.402404814903072</v>
+        <v>11.60701482972606</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.87835769638308</v>
+        <v>27.38778574384932</v>
       </c>
       <c r="H21">
-        <v>8.229613803857932</v>
+        <v>13.66309754918567</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.636291735593041</v>
+        <v>9.893667075521904</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.51541162651517</v>
+        <v>20.6665866124984</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.6081100937546</v>
+        <v>20.69694329966601</v>
       </c>
       <c r="C22">
-        <v>16.53952797297774</v>
+        <v>12.68254565729927</v>
       </c>
       <c r="D22">
-        <v>9.661130821711128</v>
+        <v>6.674959862933151</v>
       </c>
       <c r="E22">
-        <v>6.345125186036199</v>
+        <v>11.56574600667323</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.67505120607588</v>
+        <v>27.40859557616617</v>
       </c>
       <c r="H22">
-        <v>8.255494762659927</v>
+        <v>13.62471035238773</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.870946241583104</v>
+        <v>9.934514021607743</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.73963566558489</v>
+        <v>20.61897503303904</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.00052472019659</v>
+        <v>20.4221679297748</v>
       </c>
       <c r="C23">
-        <v>16.3176017925961</v>
+        <v>12.58944019067717</v>
       </c>
       <c r="D23">
-        <v>9.472596884602776</v>
+        <v>6.617206732255247</v>
       </c>
       <c r="E23">
-        <v>6.37494156915517</v>
+        <v>11.58757436198741</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.24745158929449</v>
+        <v>27.3963448460913</v>
       </c>
       <c r="H23">
-        <v>8.240520395396782</v>
+        <v>13.64493545638196</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.746070397772135</v>
+        <v>9.912611432954966</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.6177331102653</v>
+        <v>20.64382310030879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.6013342814515</v>
+        <v>19.34640763163852</v>
       </c>
       <c r="C24">
-        <v>15.45381662096732</v>
+        <v>12.23029887900675</v>
       </c>
       <c r="D24">
-        <v>8.731387548938093</v>
+        <v>6.396606524446087</v>
       </c>
       <c r="E24">
-        <v>6.503815761205149</v>
+        <v>11.6745848006464</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.68118986590506</v>
+        <v>27.37503978245831</v>
       </c>
       <c r="H24">
-        <v>8.208534994417363</v>
+        <v>13.72729818090835</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.265330556469058</v>
+        <v>9.831942286262892</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.20431232161408</v>
+        <v>20.75025764808599</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.79969452540986</v>
+        <v>18.11550396807645</v>
       </c>
       <c r="C25">
-        <v>14.47456594732804</v>
+        <v>11.83064774098864</v>
       </c>
       <c r="D25">
-        <v>7.872152185324794</v>
+        <v>6.15614918644165</v>
       </c>
       <c r="E25">
-        <v>6.673139679237017</v>
+        <v>11.77769853098831</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.11045178544222</v>
+        <v>27.4052896729237</v>
       </c>
       <c r="H25">
-        <v>8.221886462547559</v>
+        <v>13.82837936172389</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.731677711796017</v>
+        <v>9.750095560380208</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.85634541320703</v>
+        <v>20.89110452827137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.15386298278785</v>
+        <v>24.54861388200359</v>
       </c>
       <c r="C2">
-        <v>11.52759821886406</v>
+        <v>13.71554264280274</v>
       </c>
       <c r="D2">
-        <v>5.978516773887472</v>
+        <v>7.186423871629382</v>
       </c>
       <c r="E2">
-        <v>11.86158874863263</v>
+        <v>6.820554942299135</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.47276373009179</v>
+        <v>22.06108464133049</v>
       </c>
       <c r="H2">
-        <v>13.91327082812218</v>
+        <v>8.267895051445404</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.694535064815888</v>
+        <v>7.327785904285347</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.01690839712343</v>
+        <v>13.67810734143834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.47104559941554</v>
+        <v>22.90349561016278</v>
       </c>
       <c r="C3">
-        <v>11.31770863479185</v>
+        <v>13.17942160662145</v>
       </c>
       <c r="D3">
-        <v>5.85862166476447</v>
+        <v>6.687776242526737</v>
       </c>
       <c r="E3">
-        <v>11.92341555060806</v>
+        <v>6.933197120097734</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.54629610950944</v>
+        <v>21.41892305751737</v>
       </c>
       <c r="H3">
-        <v>13.97730051633524</v>
+        <v>8.319189199447353</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.659935832854574</v>
+        <v>7.048588755682955</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.11579530358568</v>
+        <v>13.60217037283538</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.03784181814913</v>
+        <v>21.83375575724645</v>
       </c>
       <c r="C4">
-        <v>11.18696006769778</v>
+        <v>12.84036983926031</v>
       </c>
       <c r="D4">
-        <v>5.785545473284466</v>
+        <v>6.364613986967732</v>
       </c>
       <c r="E4">
-        <v>11.96383183875734</v>
+        <v>7.00821876679099</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.60500295813436</v>
+        <v>21.05908691927983</v>
       </c>
       <c r="H4">
-        <v>14.01980993267216</v>
+        <v>8.35981378865708</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.640236141087627</v>
+        <v>6.875022349214607</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.18318059383411</v>
+        <v>13.57624793865945</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.85803954160074</v>
+        <v>21.38273994995456</v>
       </c>
       <c r="C5">
-        <v>11.13326258255971</v>
+        <v>12.69987018354558</v>
       </c>
       <c r="D5">
-        <v>5.755948342617581</v>
+        <v>6.228758715933994</v>
       </c>
       <c r="E5">
-        <v>11.98091908160068</v>
+        <v>7.040206216066947</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.63231001128509</v>
+        <v>20.92113110981126</v>
       </c>
       <c r="H5">
-        <v>14.03793469294474</v>
+        <v>8.378549959781289</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.632602210609001</v>
+        <v>6.803851564933662</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.21230926571885</v>
+        <v>13.57066393103262</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.82799369640914</v>
+        <v>21.30693515775587</v>
       </c>
       <c r="C6">
-        <v>11.12432265632084</v>
+        <v>12.67640414242788</v>
       </c>
       <c r="D6">
-        <v>5.751046114915264</v>
+        <v>6.209329974548851</v>
       </c>
       <c r="E6">
-        <v>11.98379369083317</v>
+        <v>7.045601607579923</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.63704788385603</v>
+        <v>20.89874729863718</v>
       </c>
       <c r="H6">
-        <v>14.04099267849174</v>
+        <v>8.381789555648806</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.631358543071372</v>
+        <v>6.792010092685151</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.21724659747058</v>
+        <v>13.57003060510503</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.03542983648963</v>
+        <v>21.8277344135489</v>
       </c>
       <c r="C7">
-        <v>11.18623749627664</v>
+        <v>12.83848424775854</v>
       </c>
       <c r="D7">
-        <v>5.785145517614804</v>
+        <v>6.36279733494634</v>
       </c>
       <c r="E7">
-        <v>11.96405978380359</v>
+        <v>7.008644502002234</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.605357566657</v>
+        <v>21.0571912719002</v>
       </c>
       <c r="H7">
-        <v>14.02005112503604</v>
+        <v>8.36005778773635</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.640131585554904</v>
+        <v>6.874064165845644</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.1835666880906</v>
+        <v>13.5761527769721</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.92145826022709</v>
+        <v>23.99369606020579</v>
       </c>
       <c r="C8">
-        <v>11.4556501153161</v>
+        <v>13.53282005058063</v>
       </c>
       <c r="D8">
-        <v>5.937092460967837</v>
+        <v>7.017994243275473</v>
       </c>
       <c r="E8">
-        <v>11.88239728175875</v>
+        <v>6.858141632317101</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.49528917589865</v>
+        <v>21.83254291939937</v>
       </c>
       <c r="H8">
-        <v>13.9346842177091</v>
+        <v>8.28361649934531</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.682288136825989</v>
+        <v>7.232017265320685</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.04961571903221</v>
+        <v>13.64749540439091</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.53912894121093</v>
+        <v>27.77238481183414</v>
       </c>
       <c r="C9">
-        <v>11.96675920005878</v>
+        <v>14.8105548873019</v>
       </c>
       <c r="D9">
-        <v>6.237347804247364</v>
+        <v>8.169720693695151</v>
       </c>
       <c r="E9">
-        <v>11.74172710884976</v>
+        <v>6.612361494513692</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.38803344198093</v>
+        <v>23.62324591426589</v>
       </c>
       <c r="H9">
-        <v>13.79270015506236</v>
+        <v>8.211437997353505</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.776952041325732</v>
+        <v>7.913298970231747</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.84020683815409</v>
+        <v>13.96098816755893</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.6441575762748</v>
+        <v>30.26913678123321</v>
       </c>
       <c r="C10">
-        <v>12.32882052974822</v>
+        <v>15.69211468545801</v>
       </c>
       <c r="D10">
-        <v>6.456749503359978</v>
+        <v>8.937185934502308</v>
       </c>
       <c r="E10">
-        <v>11.65023961286593</v>
+        <v>6.466280773026929</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.37661233936532</v>
+        <v>25.09720115819622</v>
       </c>
       <c r="H10">
-        <v>13.70397689195829</v>
+        <v>8.213215975967291</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.853443762280611</v>
+        <v>8.397078842336272</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.71930609393025</v>
+        <v>14.3085547376531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.12699796059694</v>
+        <v>31.3457291016751</v>
       </c>
       <c r="C11">
-        <v>12.49003266606925</v>
+        <v>16.07980497215267</v>
       </c>
       <c r="D11">
-        <v>6.55578511980653</v>
+        <v>9.26979204079908</v>
       </c>
       <c r="E11">
-        <v>11.61119475989391</v>
+        <v>6.40841644960652</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.38623321135563</v>
+        <v>25.80043936208242</v>
       </c>
       <c r="H11">
-        <v>13.667020856493</v>
+        <v>8.227560825096445</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.889663005737145</v>
+        <v>8.612865194645158</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.67155835867053</v>
+        <v>14.49417135369279</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.30686521465343</v>
+        <v>31.74501624413674</v>
       </c>
       <c r="C12">
-        <v>12.55053264267706</v>
+        <v>16.22463761732003</v>
       </c>
       <c r="D12">
-        <v>6.593136159200882</v>
+        <v>9.393413789680444</v>
       </c>
       <c r="E12">
-        <v>11.5967796087685</v>
+        <v>6.387842326774293</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.39201692521089</v>
+        <v>26.07130620391327</v>
       </c>
       <c r="H12">
-        <v>13.6535179254794</v>
+        <v>8.235075220958626</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.903575072751163</v>
+        <v>8.693920222411416</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.65452785511143</v>
+        <v>14.56855501190388</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.26826158379099</v>
+        <v>31.65939406879875</v>
       </c>
       <c r="C13">
-        <v>12.53752793844371</v>
+        <v>16.19353405506226</v>
       </c>
       <c r="D13">
-        <v>6.585099310341944</v>
+        <v>9.366892453690498</v>
       </c>
       <c r="E13">
-        <v>11.59986769644003</v>
+        <v>6.392212096877498</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.39067597995895</v>
+        <v>26.01276915761382</v>
       </c>
       <c r="H13">
-        <v>13.65640413201296</v>
+        <v>8.233362085505108</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.900570245165564</v>
+        <v>8.676493424834119</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.65814883363608</v>
+        <v>14.55235102525188</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.14185597811175</v>
+        <v>31.37874625627811</v>
       </c>
       <c r="C14">
-        <v>12.4950212603619</v>
+        <v>16.09176035973731</v>
       </c>
       <c r="D14">
-        <v>6.558861275449579</v>
+        <v>9.280008879090497</v>
       </c>
       <c r="E14">
-        <v>11.61000139404702</v>
+        <v>6.406696370430698</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.38666609813653</v>
+        <v>25.82263297514671</v>
       </c>
       <c r="H14">
-        <v>13.66590010038172</v>
+        <v>8.228136527630562</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.890803665861462</v>
+        <v>8.619547044495858</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.67013615056201</v>
+        <v>14.50020814615991</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.06403832387124</v>
+        <v>31.20575164392414</v>
       </c>
       <c r="C15">
-        <v>12.46891208049567</v>
+        <v>16.02916200680314</v>
       </c>
       <c r="D15">
-        <v>6.542768810392055</v>
+        <v>9.226488293593984</v>
       </c>
       <c r="E15">
-        <v>11.61625680691027</v>
+        <v>6.415745839546491</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.38448891903468</v>
+        <v>25.70675980618039</v>
       </c>
       <c r="H15">
-        <v>13.671780722839</v>
+        <v>8.225210936286825</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.884846719050042</v>
+        <v>8.584578900004956</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.67761576740787</v>
+        <v>14.46880619327442</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.6121928232802</v>
+        <v>30.19759770624373</v>
       </c>
       <c r="C16">
-        <v>12.31821072960399</v>
+        <v>15.66650444737075</v>
       </c>
       <c r="D16">
-        <v>6.450258242365285</v>
+        <v>8.915120867097528</v>
       </c>
       <c r="E16">
-        <v>11.65284308754111</v>
+        <v>6.470243748992356</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.37628266591842</v>
+        <v>25.05188908720394</v>
       </c>
       <c r="H16">
-        <v>13.70646073098797</v>
+        <v>8.2125624917583</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.851104705055139</v>
+        <v>8.382886595883424</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.72257310337008</v>
+        <v>14.29699008889058</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.32982655446643</v>
+        <v>29.56404882065733</v>
       </c>
       <c r="C17">
-        <v>12.22483286150403</v>
+        <v>15.44056325551427</v>
       </c>
       <c r="D17">
-        <v>6.393278789908233</v>
+        <v>8.719908658749656</v>
       </c>
       <c r="E17">
-        <v>11.67594683163445</v>
+        <v>6.505946490868294</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.37505141674434</v>
+        <v>24.65842496864687</v>
       </c>
       <c r="H17">
-        <v>13.7286091750995</v>
+        <v>8.208366516317199</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.830763905092974</v>
+        <v>8.258023624907205</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.75201573986475</v>
+        <v>14.19873665047365</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.16555525971405</v>
+        <v>29.19406948339878</v>
       </c>
       <c r="C18">
-        <v>12.17079830537372</v>
+        <v>15.30935526260023</v>
       </c>
       <c r="D18">
-        <v>6.360435410511496</v>
+        <v>8.606070138465647</v>
       </c>
       <c r="E18">
-        <v>11.68947768495221</v>
+        <v>6.527283457448448</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.37573745348623</v>
+        <v>24.43520321668147</v>
       </c>
       <c r="H18">
-        <v>13.74166871727746</v>
+        <v>8.207219004736125</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.819198829829148</v>
+        <v>8.185804041289405</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.76963237330268</v>
+        <v>14.14480585917332</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.10962004266649</v>
+        <v>29.06783919845165</v>
       </c>
       <c r="C19">
-        <v>12.1524485605891</v>
+        <v>15.26471740507333</v>
       </c>
       <c r="D19">
-        <v>6.349304408269661</v>
+        <v>8.567257476362117</v>
       </c>
       <c r="E19">
-        <v>11.69410058870372</v>
+        <v>6.534642493806841</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.37620883153249</v>
+        <v>24.36015913933253</v>
       </c>
       <c r="H19">
-        <v>13.74614541413998</v>
+        <v>8.207043763493891</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.815306417854606</v>
+        <v>8.161284184862277</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.77571395289792</v>
+        <v>14.12698472973225</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.36007853271127</v>
+        <v>29.63206773259048</v>
       </c>
       <c r="C20">
-        <v>12.23480718095416</v>
+        <v>15.46474519644899</v>
       </c>
       <c r="D20">
-        <v>6.399351928191047</v>
+        <v>8.740850211668951</v>
       </c>
       <c r="E20">
-        <v>11.67346233105658</v>
+        <v>6.50206218479627</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.37503810565901</v>
+        <v>24.6999913292925</v>
       </c>
       <c r="H20">
-        <v>13.72621826708098</v>
+        <v>8.208681185798426</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.832915363324572</v>
+        <v>8.271357412892574</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.74881087755965</v>
+        <v>14.20892760331177</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.17906595417206</v>
+        <v>31.46140620340448</v>
       </c>
       <c r="C21">
-        <v>12.50752171175024</v>
+        <v>16.12170782871174</v>
       </c>
       <c r="D21">
-        <v>6.566572449535083</v>
+        <v>9.305591518151362</v>
       </c>
       <c r="E21">
-        <v>11.60701482972606</v>
+        <v>6.402404814903074</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.38778574384932</v>
+        <v>25.87835769638308</v>
       </c>
       <c r="H21">
-        <v>13.66309754918567</v>
+        <v>8.229613803857992</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.893667075521904</v>
+        <v>8.636291735593018</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.6665866124984</v>
+        <v>14.51541162651525</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.69694329966601</v>
+        <v>32.60811009375458</v>
       </c>
       <c r="C22">
-        <v>12.68254565729927</v>
+        <v>16.53952797297756</v>
       </c>
       <c r="D22">
-        <v>6.674959862933151</v>
+        <v>9.661130821711122</v>
       </c>
       <c r="E22">
-        <v>11.56574600667323</v>
+        <v>6.345125186036206</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.40859557616617</v>
+        <v>26.67505120607591</v>
       </c>
       <c r="H22">
-        <v>13.62471035238773</v>
+        <v>8.255494762659922</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.934514021607743</v>
+        <v>8.870946241583127</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.61897503303904</v>
+        <v>14.73963566558492</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.4221679297748</v>
+        <v>32.00052472019665</v>
       </c>
       <c r="C23">
-        <v>12.58944019067717</v>
+        <v>16.31760179259595</v>
       </c>
       <c r="D23">
-        <v>6.617206732255247</v>
+        <v>9.472596884602771</v>
       </c>
       <c r="E23">
-        <v>11.58757436198741</v>
+        <v>6.374941569155126</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.3963448460913</v>
+        <v>26.24745158929444</v>
       </c>
       <c r="H23">
-        <v>13.64493545638196</v>
+        <v>8.240520395396747</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.912611432954966</v>
+        <v>8.746070397772151</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.64382310030879</v>
+        <v>14.61773311026526</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.34640763163852</v>
+        <v>29.60133428145151</v>
       </c>
       <c r="C24">
-        <v>12.23029887900675</v>
+        <v>15.45381662096735</v>
       </c>
       <c r="D24">
-        <v>6.396606524446087</v>
+        <v>8.731387548938134</v>
       </c>
       <c r="E24">
-        <v>11.6745848006464</v>
+        <v>6.503815761205092</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.37503978245831</v>
+        <v>24.68118986590503</v>
       </c>
       <c r="H24">
-        <v>13.72729818090835</v>
+        <v>8.208534994417329</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.831942286262892</v>
+        <v>8.265330556469024</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.75025764808599</v>
+        <v>14.20431232161403</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.11550396807645</v>
+        <v>26.79969452540984</v>
       </c>
       <c r="C25">
-        <v>11.83064774098864</v>
+        <v>14.47456594732786</v>
       </c>
       <c r="D25">
-        <v>6.15614918644165</v>
+        <v>7.872152185324777</v>
       </c>
       <c r="E25">
-        <v>11.77769853098831</v>
+        <v>6.673139679236965</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.4052896729237</v>
+        <v>23.11045178544229</v>
       </c>
       <c r="H25">
-        <v>13.82837936172389</v>
+        <v>8.221886462547605</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.750095560380208</v>
+        <v>7.731677711796046</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.89110452827137</v>
+        <v>13.85634541320708</v>
       </c>
     </row>
   </sheetData>
